--- a/Code/Results/Cases/Case_4_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_125/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.63830998508867</v>
+        <v>16.64788523577431</v>
       </c>
       <c r="C2">
-        <v>14.33599147528315</v>
+        <v>10.96267734130551</v>
       </c>
       <c r="D2">
-        <v>7.195472589111724</v>
+        <v>5.974574029107775</v>
       </c>
       <c r="E2">
-        <v>6.487311642599298</v>
+        <v>11.4177352427967</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.25119474171168</v>
+        <v>25.50443024336143</v>
       </c>
       <c r="H2">
-        <v>7.864674385019235</v>
+        <v>13.43888598846094</v>
       </c>
       <c r="I2">
-        <v>11.28877389244698</v>
+        <v>20.307434161262</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.43206158847418</v>
+        <v>9.78230786514214</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.78273723802055</v>
+        <v>20.02624156146513</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.00834239293631</v>
+        <v>15.92148017205632</v>
       </c>
       <c r="C3">
-        <v>13.66129106693291</v>
+        <v>10.67135346013609</v>
       </c>
       <c r="D3">
-        <v>6.697750220720692</v>
+        <v>5.853827881153969</v>
       </c>
       <c r="E3">
-        <v>6.597140983087228</v>
+        <v>11.47562813725585</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>19.65522444279813</v>
+        <v>25.57791268578199</v>
       </c>
       <c r="H3">
-        <v>7.920931208901089</v>
+        <v>13.50029160805024</v>
       </c>
       <c r="I3">
-        <v>11.62767079370898</v>
+        <v>20.46081009589008</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.149119921980487</v>
+        <v>9.746698247759586</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.7265631816239</v>
+        <v>20.12239195217228</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.94802218898667</v>
+        <v>15.45818407752698</v>
       </c>
       <c r="C4">
-        <v>13.23013075967453</v>
+        <v>10.48780111349629</v>
       </c>
       <c r="D4">
-        <v>6.375022156533042</v>
+        <v>5.780192019635623</v>
       </c>
       <c r="E4">
-        <v>6.669667131589787</v>
+        <v>11.51341733328288</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>19.32074221611281</v>
+        <v>25.63569128001132</v>
       </c>
       <c r="H4">
-        <v>7.963751072763539</v>
+        <v>13.54096679475966</v>
       </c>
       <c r="I4">
-        <v>11.84980271128513</v>
+        <v>20.56049605468548</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.973103211187021</v>
+        <v>9.726398868585127</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.71110206362396</v>
+        <v>20.18763090903874</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.50089815466634</v>
+        <v>15.2652731884131</v>
       </c>
       <c r="C5">
-        <v>13.05033539377601</v>
+        <v>10.41191034569298</v>
       </c>
       <c r="D5">
-        <v>6.239167538653119</v>
+        <v>5.750358118016663</v>
       </c>
       <c r="E5">
-        <v>6.700459226061713</v>
+        <v>11.52938103705639</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19.19238695379699</v>
+        <v>25.66239610208187</v>
       </c>
       <c r="H5">
-        <v>7.983181653650276</v>
+        <v>13.55828840698893</v>
       </c>
       <c r="I5">
-        <v>11.94366182030046</v>
+        <v>20.60250488248532</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.900900274080469</v>
+        <v>9.718526081705591</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.70937909425095</v>
+        <v>20.21576888665874</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.42574354910135</v>
+        <v>15.23299941281097</v>
       </c>
       <c r="C6">
-        <v>13.02023827465193</v>
+        <v>10.39924539612471</v>
       </c>
       <c r="D6">
-        <v>6.216889035068708</v>
+        <v>5.745416069036995</v>
       </c>
       <c r="E6">
-        <v>6.705645763778302</v>
+        <v>11.53206589084682</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>19.17155392743096</v>
+        <v>25.66702050397793</v>
       </c>
       <c r="H6">
-        <v>7.986524871877664</v>
+        <v>13.56120967897997</v>
       </c>
       <c r="I6">
-        <v>11.95944352005453</v>
+        <v>20.60956412370606</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.888885513855475</v>
+        <v>9.717243094746337</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.70936318772665</v>
+        <v>20.22053474016746</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.94205308236661</v>
+        <v>15.45559874148448</v>
       </c>
       <c r="C7">
-        <v>13.22772232991861</v>
+        <v>10.48678192806613</v>
       </c>
       <c r="D7">
-        <v>6.373207592317782</v>
+        <v>5.779788905132284</v>
       </c>
       <c r="E7">
-        <v>6.670077449549304</v>
+        <v>11.51363034006839</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>19.31897897098536</v>
+        <v>25.63603867092751</v>
       </c>
       <c r="H7">
-        <v>7.96400522902043</v>
+        <v>13.54119738051457</v>
       </c>
       <c r="I7">
-        <v>11.85105524755073</v>
+        <v>20.56105698878224</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.972131238107296</v>
+        <v>9.726291068986413</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.71106057514064</v>
+        <v>20.18800411073858</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.08860534269306</v>
+        <v>16.40113625927705</v>
       </c>
       <c r="C8">
-        <v>14.10694427415696</v>
+        <v>10.86324883457127</v>
       </c>
       <c r="D8">
-        <v>7.027391271789135</v>
+        <v>5.932864344667042</v>
       </c>
       <c r="E8">
-        <v>6.524097234810029</v>
+        <v>11.43723144271516</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.03921802764214</v>
+        <v>25.52712573985021</v>
       </c>
       <c r="H8">
-        <v>7.882292230793142</v>
+        <v>13.45944113171967</v>
       </c>
       <c r="I8">
-        <v>11.40258474588386</v>
+        <v>20.35917393620955</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.335035786582693</v>
+        <v>9.769708455689912</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.7592975492614</v>
+        <v>20.05810275710667</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.8292120011475</v>
+        <v>18.10961753011954</v>
       </c>
       <c r="C9">
-        <v>15.69166433341735</v>
+        <v>11.56096116085301</v>
       </c>
       <c r="D9">
-        <v>8.175951081568799</v>
+        <v>6.235013533868945</v>
       </c>
       <c r="E9">
-        <v>6.280358596623953</v>
+        <v>11.30519259981688</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>21.69701736791907</v>
+        <v>25.41494839993782</v>
       </c>
       <c r="H9">
-        <v>7.792386953453137</v>
+        <v>13.32274994784225</v>
       </c>
       <c r="I9">
-        <v>10.64487170338966</v>
+        <v>20.00703000403804</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.024641509382123</v>
+        <v>9.866994478310261</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.01345815994263</v>
+        <v>19.85288691223534</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.2967680702044</v>
+        <v>19.2664215169903</v>
       </c>
       <c r="C10">
-        <v>16.76536621646512</v>
+        <v>12.0447065052338</v>
       </c>
       <c r="D10">
-        <v>8.940190517730848</v>
+        <v>6.455584022032326</v>
       </c>
       <c r="E10">
-        <v>6.130504993807855</v>
+        <v>11.21900025792681</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.05701345674371</v>
+        <v>25.39545928561434</v>
       </c>
       <c r="H10">
-        <v>7.775779213083406</v>
+        <v>13.23680117970775</v>
       </c>
       <c r="I10">
-        <v>10.17933949224885</v>
+        <v>19.77499385192553</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.51344472046596</v>
+        <v>9.945483557262905</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.30798367831718</v>
+        <v>19.7327164372205</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.35956740060983</v>
+        <v>19.76976525915967</v>
       </c>
       <c r="C11">
-        <v>17.23337074842048</v>
+        <v>12.25774854202919</v>
       </c>
       <c r="D11">
-        <v>9.271088358817369</v>
+        <v>6.555098429838517</v>
       </c>
       <c r="E11">
-        <v>6.069507036044754</v>
+        <v>11.18213363654282</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.7046279763345</v>
+        <v>25.40043413930478</v>
       </c>
       <c r="H11">
-        <v>7.780415762177034</v>
+        <v>13.20086023158403</v>
       </c>
       <c r="I11">
-        <v>9.991972707749213</v>
+        <v>19.67523450050843</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.731226193346101</v>
+        <v>9.982622338544367</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.46725261548488</v>
+        <v>19.68477767883743</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.75353736373919</v>
+        <v>19.95697402974259</v>
       </c>
       <c r="C12">
-        <v>17.40761069534473</v>
+        <v>12.33735744235986</v>
       </c>
       <c r="D12">
-        <v>9.394024292722841</v>
+        <v>6.592622873976101</v>
       </c>
       <c r="E12">
-        <v>6.04751769176572</v>
+        <v>11.16850987266825</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23.95386682048042</v>
+        <v>25.40431794745306</v>
       </c>
       <c r="H12">
-        <v>7.784046199523971</v>
+        <v>13.18770574667322</v>
       </c>
       <c r="I12">
-        <v>9.924990037110257</v>
+        <v>19.6382925218134</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.812990495146957</v>
+        <v>9.996883797338745</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.5313273726875</v>
+        <v>19.66759864202051</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.66906485583075</v>
+        <v>19.91680782256674</v>
       </c>
       <c r="C13">
-        <v>17.37021826104967</v>
+        <v>12.32026047239952</v>
       </c>
       <c r="D13">
-        <v>9.367652464549307</v>
+        <v>6.584549034925284</v>
       </c>
       <c r="E13">
-        <v>6.052202834263447</v>
+        <v>11.17142901412007</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23.90001321264555</v>
+        <v>25.40339243275173</v>
       </c>
       <c r="H13">
-        <v>7.783179002335985</v>
+        <v>13.19051851443403</v>
       </c>
       <c r="I13">
-        <v>9.939231449279742</v>
+        <v>19.64621148938187</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.795413073318143</v>
+        <v>9.993803675607788</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.51735854078147</v>
+        <v>19.67125501326094</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.39214911285833</v>
+        <v>19.78523564927496</v>
       </c>
       <c r="C14">
-        <v>17.24776557285869</v>
+        <v>12.26431967295601</v>
       </c>
       <c r="D14">
-        <v>9.281249581344909</v>
+        <v>6.558189011484283</v>
       </c>
       <c r="E14">
-        <v>6.067675254931181</v>
+        <v>11.18100605100814</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>23.72505368157751</v>
+        <v>25.40071353696176</v>
       </c>
       <c r="H14">
-        <v>7.780676170992018</v>
+        <v>13.19976886513524</v>
       </c>
       <c r="I14">
-        <v>9.98637960444716</v>
+        <v>19.67217852401479</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.73796734887039</v>
+        <v>9.983791721876758</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.47244800622623</v>
+        <v>19.68334478315681</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.22142763016243</v>
+        <v>19.70419874296824</v>
       </c>
       <c r="C15">
-        <v>17.17237015113103</v>
+        <v>12.22991397327263</v>
       </c>
       <c r="D15">
-        <v>9.228018227114545</v>
+        <v>6.542020787853358</v>
       </c>
       <c r="E15">
-        <v>6.077299459716073</v>
+        <v>11.18691612616618</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.61840248065933</v>
+        <v>25.39933331857534</v>
       </c>
       <c r="H15">
-        <v>7.779390870038864</v>
+        <v>13.20549434612146</v>
       </c>
       <c r="I15">
-        <v>10.01579079446426</v>
+        <v>19.68819283231893</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.702687182781913</v>
+        <v>9.977684618569652</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.44543251641793</v>
+        <v>19.69087720502629</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.22611836540385</v>
+        <v>19.23305682264563</v>
       </c>
       <c r="C16">
-        <v>16.73436571956929</v>
+        <v>12.03063756173654</v>
       </c>
       <c r="D16">
-        <v>8.918231886651798</v>
+        <v>6.449060379814471</v>
       </c>
       <c r="E16">
-        <v>6.134642161978547</v>
+        <v>11.22145671443709</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.01525869971266</v>
+        <v>25.39541357684919</v>
       </c>
       <c r="H16">
-        <v>7.775731903352861</v>
+        <v>13.23921367314543</v>
       </c>
       <c r="I16">
-        <v>10.19211334477265</v>
+        <v>19.78163008761403</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.499115869175547</v>
+        <v>9.943084592854287</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.29809518845737</v>
+        <v>19.73598531845599</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.6003038182333</v>
+        <v>18.93808318092274</v>
       </c>
       <c r="C17">
-        <v>16.46039492995567</v>
+        <v>11.90654891880058</v>
       </c>
       <c r="D17">
-        <v>8.723925030236989</v>
+        <v>6.391791187581547</v>
       </c>
       <c r="E17">
-        <v>6.171710006791355</v>
+        <v>11.2432462236474</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.65254455025543</v>
+        <v>25.3965617621867</v>
       </c>
       <c r="H17">
-        <v>7.776696027295897</v>
+        <v>13.26070919555718</v>
       </c>
       <c r="I17">
-        <v>10.30684016349633</v>
+        <v>19.84043601696034</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.373022737405943</v>
+        <v>9.922219954430989</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.21428138775715</v>
+        <v>19.76538573912954</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.23472615850363</v>
+        <v>18.76627249206931</v>
       </c>
       <c r="C18">
-        <v>16.3008931576739</v>
+        <v>11.83451904405347</v>
       </c>
       <c r="D18">
-        <v>8.610584860948425</v>
+        <v>6.358776192553818</v>
       </c>
       <c r="E18">
-        <v>6.193700330436548</v>
+        <v>11.25599948115133</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.44665460643266</v>
+        <v>25.39852453055402</v>
       </c>
       <c r="H18">
-        <v>7.778390746273939</v>
+        <v>13.27336996634341</v>
       </c>
       <c r="I18">
-        <v>10.37509404683228</v>
+        <v>19.87480499683342</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.300068578850668</v>
+        <v>9.910354633460354</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.16844774449293</v>
+        <v>19.78292889589853</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.1099787645167</v>
+        <v>18.70773461720719</v>
       </c>
       <c r="C19">
-        <v>16.24656029354961</v>
+        <v>11.81001987681348</v>
       </c>
       <c r="D19">
-        <v>8.571937210833079</v>
+        <v>6.347586241451893</v>
       </c>
       <c r="E19">
-        <v>6.201258669335184</v>
+        <v>11.26035538956398</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.37741843863158</v>
+        <v>25.39941242382312</v>
       </c>
       <c r="H19">
-        <v>7.779156684050655</v>
+        <v>13.27770766951149</v>
       </c>
       <c r="I19">
-        <v>10.39857983505054</v>
+        <v>19.88653536974773</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.275295502551893</v>
+        <v>9.906360755970514</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.15333280356642</v>
+        <v>19.78897717846606</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.66750439812271</v>
+        <v>18.96970692269758</v>
       </c>
       <c r="C20">
-        <v>16.48975878350073</v>
+        <v>11.91982682923605</v>
       </c>
       <c r="D20">
-        <v>8.744772553125173</v>
+        <v>6.397895685342299</v>
       </c>
       <c r="E20">
-        <v>6.167694199333442</v>
+        <v>11.24090387190212</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>22.69087438142532</v>
+        <v>25.39630466570533</v>
       </c>
       <c r="H20">
-        <v>7.776474511854784</v>
+        <v>13.25839019925947</v>
       </c>
       <c r="I20">
-        <v>10.29438963752193</v>
+        <v>19.83411957252758</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.386490306688946</v>
+        <v>9.92442707005433</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.2229568499895</v>
+        <v>19.76219046945</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.47371558053314</v>
+        <v>19.82397451835967</v>
       </c>
       <c r="C21">
-        <v>17.28381415275787</v>
+        <v>12.28078018285123</v>
       </c>
       <c r="D21">
-        <v>9.306692123019358</v>
+        <v>6.565936233138103</v>
       </c>
       <c r="E21">
-        <v>6.063099866313761</v>
+        <v>11.17818390205859</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>23.77633614969571</v>
+        <v>25.40144605488926</v>
       </c>
       <c r="H21">
-        <v>7.781359463688026</v>
+        <v>13.19703943667922</v>
       </c>
       <c r="I21">
-        <v>9.972419359275902</v>
+        <v>19.66452871040606</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.754860001327817</v>
+        <v>9.986727174971524</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.48553627138518</v>
+        <v>19.67976722743754</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.60474604277798</v>
+        <v>20.36245287755264</v>
       </c>
       <c r="C22">
-        <v>17.78537534292054</v>
+        <v>12.51045109489917</v>
       </c>
       <c r="D22">
-        <v>9.660157970162809</v>
+        <v>6.67481341656619</v>
       </c>
       <c r="E22">
-        <v>6.001248584430571</v>
+        <v>11.13915604834443</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.50900901686598</v>
+        <v>25.41646558593838</v>
       </c>
       <c r="H22">
-        <v>7.795535714369517</v>
+        <v>13.15959929897761</v>
       </c>
       <c r="I22">
-        <v>9.785385864787436</v>
+        <v>19.55855744502577</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.991487967205433</v>
+        <v>10.02859279667177</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.67912724820767</v>
+        <v>19.63158107457064</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.00558393408496</v>
+        <v>20.07690203564517</v>
       </c>
       <c r="C23">
-        <v>17.51928627100951</v>
+        <v>12.38845901743341</v>
       </c>
       <c r="D23">
-        <v>9.47275320849926</v>
+        <v>6.616803194203742</v>
       </c>
       <c r="E23">
-        <v>6.033636648589354</v>
+        <v>11.15980631906038</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.11588809147301</v>
+        <v>25.40738020090487</v>
       </c>
       <c r="H23">
-        <v>7.786924318499594</v>
+        <v>13.17933826574649</v>
       </c>
       <c r="I23">
-        <v>9.882900679467898</v>
+        <v>19.61467054479415</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.865585268867925</v>
+        <v>10.00614603690449</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.57375572635102</v>
+        <v>19.656776776005</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.6371410532035</v>
+        <v>18.95541675571652</v>
       </c>
       <c r="C24">
-        <v>16.47648958730772</v>
+        <v>11.91382602974998</v>
       </c>
       <c r="D24">
-        <v>8.735352470038318</v>
+        <v>6.395136119650798</v>
       </c>
       <c r="E24">
-        <v>6.169507635128915</v>
+        <v>11.24196214459316</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>22.67353723158175</v>
+        <v>25.39641684208383</v>
       </c>
       <c r="H24">
-        <v>7.776571116003218</v>
+        <v>13.25943767465992</v>
       </c>
       <c r="I24">
-        <v>10.30001140306686</v>
+        <v>19.83697349067246</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.380403052556201</v>
+        <v>9.923428827401954</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.21902735728923</v>
+        <v>19.76363305636874</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.86695378868323</v>
+        <v>17.66411508794451</v>
       </c>
       <c r="C25">
-        <v>15.27854053136537</v>
+        <v>11.37700325996336</v>
       </c>
       <c r="D25">
-        <v>7.879383013053489</v>
+        <v>6.153339908382726</v>
       </c>
       <c r="E25">
-        <v>6.341424081250506</v>
+        <v>11.33901160308653</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>21.22296263904617</v>
+        <v>25.43431392481625</v>
       </c>
       <c r="H25">
-        <v>7.808510973442323</v>
+        <v>13.3571912005281</v>
       </c>
       <c r="I25">
-        <v>10.83523419391151</v>
+        <v>20.09760981660988</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.840942473175709</v>
+        <v>9.839414690061865</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.92646641500573</v>
+        <v>19.90305849767807</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_125/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.64788523577431</v>
+        <v>24.63830998508866</v>
       </c>
       <c r="C2">
-        <v>10.96267734130551</v>
+        <v>14.33599147528306</v>
       </c>
       <c r="D2">
-        <v>5.974574029107775</v>
+        <v>7.195472589111668</v>
       </c>
       <c r="E2">
-        <v>11.4177352427967</v>
+        <v>6.487311642599364</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.50443024336143</v>
+        <v>20.25119474171185</v>
       </c>
       <c r="H2">
-        <v>13.43888598846094</v>
+        <v>7.864674385019249</v>
       </c>
       <c r="I2">
-        <v>20.307434161262</v>
+        <v>11.28877389244708</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.78230786514214</v>
+        <v>7.432061588474159</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.02624156146513</v>
+        <v>12.78273723802064</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.92148017205632</v>
+        <v>23.00834239293624</v>
       </c>
       <c r="C3">
-        <v>10.67135346013609</v>
+        <v>13.66129106693283</v>
       </c>
       <c r="D3">
-        <v>5.853827881153969</v>
+        <v>6.697750220720698</v>
       </c>
       <c r="E3">
-        <v>11.47562813725585</v>
+        <v>6.597140983087231</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.57791268578199</v>
+        <v>19.65522444279844</v>
       </c>
       <c r="H3">
-        <v>13.50029160805024</v>
+        <v>7.920931208901201</v>
       </c>
       <c r="I3">
-        <v>20.46081009589008</v>
+        <v>11.62767079370928</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.746698247759586</v>
+        <v>7.149119921980452</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.12239195217228</v>
+        <v>12.72656318162418</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.45818407752698</v>
+        <v>21.94802218898657</v>
       </c>
       <c r="C4">
-        <v>10.48780111349629</v>
+        <v>13.23013075967461</v>
       </c>
       <c r="D4">
-        <v>5.780192019635623</v>
+        <v>6.375022156533038</v>
       </c>
       <c r="E4">
-        <v>11.51341733328288</v>
+        <v>6.669667131589972</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.63569128001132</v>
+        <v>19.32074221611312</v>
       </c>
       <c r="H4">
-        <v>13.54096679475966</v>
+        <v>7.963751072763596</v>
       </c>
       <c r="I4">
-        <v>20.56049605468548</v>
+        <v>11.84980271128534</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.726398868585127</v>
+        <v>6.97310321118704</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.18763090903874</v>
+        <v>12.71110206362413</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.2652731884131</v>
+        <v>21.50089815466636</v>
       </c>
       <c r="C5">
-        <v>10.41191034569298</v>
+        <v>13.05033539377601</v>
       </c>
       <c r="D5">
-        <v>5.750358118016663</v>
+        <v>6.239167538653095</v>
       </c>
       <c r="E5">
-        <v>11.52938103705639</v>
+        <v>6.700459226061649</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.66239610208187</v>
+        <v>19.19238695379709</v>
       </c>
       <c r="H5">
-        <v>13.55828840698893</v>
+        <v>7.983181653650272</v>
       </c>
       <c r="I5">
-        <v>20.60250488248532</v>
+        <v>11.9436618203005</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.718526081705591</v>
+        <v>6.900900274080439</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.21576888665874</v>
+        <v>12.70937909425098</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.23299941281097</v>
+        <v>21.42574354910136</v>
       </c>
       <c r="C6">
-        <v>10.39924539612471</v>
+        <v>13.02023827465193</v>
       </c>
       <c r="D6">
-        <v>5.745416069036995</v>
+        <v>6.216889035068752</v>
       </c>
       <c r="E6">
-        <v>11.53206589084682</v>
+        <v>6.705645763778241</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.66702050397793</v>
+        <v>19.17155392743098</v>
       </c>
       <c r="H6">
-        <v>13.56120967897997</v>
+        <v>7.986524871877666</v>
       </c>
       <c r="I6">
-        <v>20.60956412370606</v>
+        <v>11.95944352005454</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.717243094746337</v>
+        <v>6.88888551385546</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.22053474016746</v>
+        <v>12.70936318772667</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.45559874148448</v>
+        <v>21.94205308236656</v>
       </c>
       <c r="C7">
-        <v>10.48678192806613</v>
+        <v>13.22772232991875</v>
       </c>
       <c r="D7">
-        <v>5.779788905132284</v>
+        <v>6.373207592317782</v>
       </c>
       <c r="E7">
-        <v>11.51363034006839</v>
+        <v>6.670077449549374</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.63603867092751</v>
+        <v>19.31897897098528</v>
       </c>
       <c r="H7">
-        <v>13.54119738051457</v>
+        <v>7.964005229020549</v>
       </c>
       <c r="I7">
-        <v>20.56105698878224</v>
+        <v>11.85105524755086</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.726291068986413</v>
+        <v>6.972131238107249</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.18800411073858</v>
+        <v>12.71106057514066</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.40113625927705</v>
+        <v>24.08860534269307</v>
       </c>
       <c r="C8">
-        <v>10.86324883457127</v>
+        <v>14.10694427415678</v>
       </c>
       <c r="D8">
-        <v>5.932864344667042</v>
+        <v>7.02739127178909</v>
       </c>
       <c r="E8">
-        <v>11.43723144271516</v>
+        <v>6.524097234809907</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.52712573985021</v>
+        <v>20.03921802764223</v>
       </c>
       <c r="H8">
-        <v>13.45944113171967</v>
+        <v>7.882292230793206</v>
       </c>
       <c r="I8">
-        <v>20.35917393620955</v>
+        <v>11.4025847458839</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.769708455689912</v>
+        <v>7.335035786582667</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.05810275710667</v>
+        <v>12.75929754926149</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.10961753011954</v>
+        <v>27.82921200114752</v>
       </c>
       <c r="C9">
-        <v>11.56096116085301</v>
+        <v>15.69166433341724</v>
       </c>
       <c r="D9">
-        <v>6.235013533868945</v>
+        <v>8.175951081568757</v>
       </c>
       <c r="E9">
-        <v>11.30519259981688</v>
+        <v>6.28035859662396</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.41494839993782</v>
+        <v>21.69701736791912</v>
       </c>
       <c r="H9">
-        <v>13.32274994784225</v>
+        <v>7.792386953453055</v>
       </c>
       <c r="I9">
-        <v>20.00703000403804</v>
+        <v>10.64487170338962</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.866994478310261</v>
+        <v>8.024641509382151</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.85288691223534</v>
+        <v>13.0134581599426</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.2664215169903</v>
+        <v>30.29676807020435</v>
       </c>
       <c r="C10">
-        <v>12.0447065052338</v>
+        <v>16.76536621646515</v>
       </c>
       <c r="D10">
-        <v>6.455584022032326</v>
+        <v>8.9401905177308</v>
       </c>
       <c r="E10">
-        <v>11.21900025792681</v>
+        <v>6.130504993807919</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.39545928561434</v>
+        <v>23.05701345674384</v>
       </c>
       <c r="H10">
-        <v>13.23680117970775</v>
+        <v>7.775779213083473</v>
       </c>
       <c r="I10">
-        <v>19.77499385192553</v>
+        <v>10.17933949224906</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.945483557262905</v>
+        <v>8.513444720465952</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.7327164372205</v>
+        <v>13.30798367831728</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.76976525915967</v>
+        <v>31.35956740060987</v>
       </c>
       <c r="C11">
-        <v>12.25774854202919</v>
+        <v>17.23337074842032</v>
       </c>
       <c r="D11">
-        <v>6.555098429838517</v>
+        <v>9.27108835881749</v>
       </c>
       <c r="E11">
-        <v>11.18213363654282</v>
+        <v>6.069507036044821</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.40043413930478</v>
+        <v>23.70462797633452</v>
       </c>
       <c r="H11">
-        <v>13.20086023158403</v>
+        <v>7.78041576217693</v>
       </c>
       <c r="I11">
-        <v>19.67523450050843</v>
+        <v>9.991972707749159</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.982622338544367</v>
+        <v>8.731226193346147</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.68477767883743</v>
+        <v>13.46725261548487</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.95697402974259</v>
+        <v>31.75353736373922</v>
       </c>
       <c r="C12">
-        <v>12.33735744235986</v>
+        <v>17.40761069534497</v>
       </c>
       <c r="D12">
-        <v>6.592622873976101</v>
+        <v>9.394024292722857</v>
       </c>
       <c r="E12">
-        <v>11.16850987266825</v>
+        <v>6.047517691765828</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.40431794745306</v>
+        <v>23.9538668204804</v>
       </c>
       <c r="H12">
-        <v>13.18770574667322</v>
+        <v>7.784046199523886</v>
       </c>
       <c r="I12">
-        <v>19.6382925218134</v>
+        <v>9.924990037110186</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.996883797338745</v>
+        <v>8.812990495146938</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.66759864202051</v>
+        <v>13.53132737268739</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.91680782256674</v>
+        <v>31.66906485583068</v>
       </c>
       <c r="C13">
-        <v>12.32026047239952</v>
+        <v>17.37021826104958</v>
       </c>
       <c r="D13">
-        <v>6.584549034925284</v>
+        <v>9.367652464549291</v>
       </c>
       <c r="E13">
-        <v>11.17142901412007</v>
+        <v>6.052202834263447</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.40339243275173</v>
+        <v>23.90001321264563</v>
       </c>
       <c r="H13">
-        <v>13.19051851443403</v>
+        <v>7.783179002336034</v>
       </c>
       <c r="I13">
-        <v>19.64621148938187</v>
+        <v>9.93923144927993</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.993803675607788</v>
+        <v>8.795413073318143</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.67125501326094</v>
+        <v>13.51735854078158</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.78523564927496</v>
+        <v>31.39214911285825</v>
       </c>
       <c r="C14">
-        <v>12.26431967295601</v>
+        <v>17.24776557285858</v>
       </c>
       <c r="D14">
-        <v>6.558189011484283</v>
+        <v>9.281249581344825</v>
       </c>
       <c r="E14">
-        <v>11.18100605100814</v>
+        <v>6.067675254931189</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.40071353696176</v>
+        <v>23.72505368157763</v>
       </c>
       <c r="H14">
-        <v>13.19976886513524</v>
+        <v>7.780676170992057</v>
       </c>
       <c r="I14">
-        <v>19.67217852401479</v>
+        <v>9.986379604447263</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.983791721876758</v>
+        <v>8.737967348870388</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.68334478315681</v>
+        <v>13.47244800622634</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.70419874296824</v>
+        <v>31.22142763016245</v>
       </c>
       <c r="C15">
-        <v>12.22991397327263</v>
+        <v>17.1723701511311</v>
       </c>
       <c r="D15">
-        <v>6.542020787853358</v>
+        <v>9.228018227114569</v>
       </c>
       <c r="E15">
-        <v>11.18691612616618</v>
+        <v>6.07729945971603</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.39933331857534</v>
+        <v>23.61840248065934</v>
       </c>
       <c r="H15">
-        <v>13.20549434612146</v>
+        <v>7.779390870038783</v>
       </c>
       <c r="I15">
-        <v>19.68819283231893</v>
+        <v>10.01579079446419</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.977684618569652</v>
+        <v>8.702687182781887</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.69087720502629</v>
+        <v>13.44543251641787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.23305682264563</v>
+        <v>30.22611836540382</v>
       </c>
       <c r="C16">
-        <v>12.03063756173654</v>
+        <v>16.73436571956926</v>
       </c>
       <c r="D16">
-        <v>6.449060379814471</v>
+        <v>8.918231886651782</v>
       </c>
       <c r="E16">
-        <v>11.22145671443709</v>
+        <v>6.134642161978498</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.39541357684919</v>
+        <v>23.01525869971274</v>
       </c>
       <c r="H16">
-        <v>13.23921367314543</v>
+        <v>7.775731903352868</v>
       </c>
       <c r="I16">
-        <v>19.78163008761403</v>
+        <v>10.19211334477271</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.943084592854287</v>
+        <v>8.499115869175549</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.73598531845599</v>
+        <v>13.29809518845746</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.93808318092274</v>
+        <v>29.60030381823329</v>
       </c>
       <c r="C17">
-        <v>11.90654891880058</v>
+        <v>16.46039492995564</v>
       </c>
       <c r="D17">
-        <v>6.391791187581547</v>
+        <v>8.723925030236952</v>
       </c>
       <c r="E17">
-        <v>11.2432462236474</v>
+        <v>6.171710006791418</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.3965617621867</v>
+        <v>22.65254455025558</v>
       </c>
       <c r="H17">
-        <v>13.26070919555718</v>
+        <v>7.776696027295863</v>
       </c>
       <c r="I17">
-        <v>19.84043601696034</v>
+        <v>10.30684016349641</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.922219954430989</v>
+        <v>8.373022737405938</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.76538573912954</v>
+        <v>13.2142813877572</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.76627249206931</v>
+        <v>29.23472615850367</v>
       </c>
       <c r="C18">
-        <v>11.83451904405347</v>
+        <v>16.30089315767394</v>
       </c>
       <c r="D18">
-        <v>6.358776192553818</v>
+        <v>8.610584860948412</v>
       </c>
       <c r="E18">
-        <v>11.25599948115133</v>
+        <v>6.193700330436673</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.39852453055402</v>
+        <v>22.44665460643269</v>
       </c>
       <c r="H18">
-        <v>13.27336996634341</v>
+        <v>7.778390746273814</v>
       </c>
       <c r="I18">
-        <v>19.87480499683342</v>
+        <v>10.37509404683217</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.910354633460354</v>
+        <v>8.300068578850723</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.78292889589853</v>
+        <v>13.16844774449286</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.70773461720719</v>
+        <v>29.10997876451666</v>
       </c>
       <c r="C19">
-        <v>11.81001987681348</v>
+        <v>16.24656029354965</v>
       </c>
       <c r="D19">
-        <v>6.347586241451893</v>
+        <v>8.571937210833084</v>
       </c>
       <c r="E19">
-        <v>11.26035538956398</v>
+        <v>6.201258669335189</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.39941242382312</v>
+        <v>22.37741843863163</v>
       </c>
       <c r="H19">
-        <v>13.27770766951149</v>
+        <v>7.779156684050662</v>
       </c>
       <c r="I19">
-        <v>19.88653536974773</v>
+        <v>10.39857983505061</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.906360755970514</v>
+        <v>8.275295502551884</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.78897717846606</v>
+        <v>13.15333280356647</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.96970692269758</v>
+        <v>29.66750439812265</v>
       </c>
       <c r="C20">
-        <v>11.91982682923605</v>
+        <v>16.4897587835007</v>
       </c>
       <c r="D20">
-        <v>6.397895685342299</v>
+        <v>8.744772553125204</v>
       </c>
       <c r="E20">
-        <v>11.24090387190212</v>
+        <v>6.167694199333403</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.39630466570533</v>
+        <v>22.6908743814255</v>
       </c>
       <c r="H20">
-        <v>13.25839019925947</v>
+        <v>7.776474511854809</v>
       </c>
       <c r="I20">
-        <v>19.83411957252758</v>
+        <v>10.29438963752209</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.92442707005433</v>
+        <v>8.386490306688971</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.76219046945</v>
+        <v>13.22295684998964</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.82397451835967</v>
+        <v>31.47371558053307</v>
       </c>
       <c r="C21">
-        <v>12.28078018285123</v>
+        <v>17.2838141527578</v>
       </c>
       <c r="D21">
-        <v>6.565936233138103</v>
+        <v>9.306692123019365</v>
       </c>
       <c r="E21">
-        <v>11.17818390205859</v>
+        <v>6.063099866313705</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.40144605488926</v>
+        <v>23.77633614969573</v>
       </c>
       <c r="H21">
-        <v>13.19703943667922</v>
+        <v>7.781359463688051</v>
       </c>
       <c r="I21">
-        <v>19.66452871040606</v>
+        <v>9.972419359275987</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.986727174971524</v>
+        <v>8.754860001327826</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.67976722743754</v>
+        <v>13.48553627138524</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.36245287755264</v>
+        <v>32.604746042778</v>
       </c>
       <c r="C22">
-        <v>12.51045109489917</v>
+        <v>17.78537534292056</v>
       </c>
       <c r="D22">
-        <v>6.67481341656619</v>
+        <v>9.66015797016288</v>
       </c>
       <c r="E22">
-        <v>11.13915604834443</v>
+        <v>6.001248584430622</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.41646558593838</v>
+        <v>24.50900901686612</v>
       </c>
       <c r="H22">
-        <v>13.15959929897761</v>
+        <v>7.795535714369494</v>
       </c>
       <c r="I22">
-        <v>19.55855744502577</v>
+        <v>9.785385864787425</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.02859279667177</v>
+        <v>8.991487967205437</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.63158107457064</v>
+        <v>13.67912724820766</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.07690203564517</v>
+        <v>32.00558393408497</v>
       </c>
       <c r="C23">
-        <v>12.38845901743341</v>
+        <v>17.51928627100942</v>
       </c>
       <c r="D23">
-        <v>6.616803194203742</v>
+        <v>9.472753208499348</v>
       </c>
       <c r="E23">
-        <v>11.15980631906038</v>
+        <v>6.033636648589407</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.40738020090487</v>
+        <v>24.11588809147307</v>
       </c>
       <c r="H23">
-        <v>13.17933826574649</v>
+        <v>7.786924318499529</v>
       </c>
       <c r="I23">
-        <v>19.61467054479415</v>
+        <v>9.882900679467879</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.00614603690449</v>
+        <v>8.865585268867925</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.656776776005</v>
+        <v>13.57375572635103</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.95541675571652</v>
+        <v>29.6371410532035</v>
       </c>
       <c r="C24">
-        <v>11.91382602974998</v>
+        <v>16.47648958730759</v>
       </c>
       <c r="D24">
-        <v>6.395136119650798</v>
+        <v>8.735352470038421</v>
       </c>
       <c r="E24">
-        <v>11.24196214459316</v>
+        <v>6.169507635128873</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.39641684208383</v>
+        <v>22.67353723158187</v>
       </c>
       <c r="H24">
-        <v>13.25943767465992</v>
+        <v>7.776571116003265</v>
       </c>
       <c r="I24">
-        <v>19.83697349067246</v>
+        <v>10.30001140306695</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.923428827401954</v>
+        <v>8.380403052556202</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.76363305636874</v>
+        <v>13.2190273572893</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.66411508794451</v>
+        <v>26.86695378868331</v>
       </c>
       <c r="C25">
-        <v>11.37700325996336</v>
+        <v>15.27854053136521</v>
       </c>
       <c r="D25">
-        <v>6.153339908382726</v>
+        <v>7.879383013053613</v>
       </c>
       <c r="E25">
-        <v>11.33901160308653</v>
+        <v>6.341424081250331</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.43431392481625</v>
+        <v>21.22296263904614</v>
       </c>
       <c r="H25">
-        <v>13.3571912005281</v>
+        <v>7.808510973442242</v>
       </c>
       <c r="I25">
-        <v>20.09760981660988</v>
+        <v>10.83523419391134</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.839414690061865</v>
+        <v>7.840942473175687</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.90305849767807</v>
+        <v>12.92646641500569</v>
       </c>
     </row>
   </sheetData>
